--- a/va_facility_data_2025-02-20/Carmel VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carmel%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Carmel VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Carmel%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb45a2b5c88004b6384bdb3643bfca2be"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra53e477fde0e495f9e9c2649401afa9c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdbeacd25d29349ea97e3a729937346f1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc11debfe81154f07880955beb75f677f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0958da71a2a5486b9a04a851041321d3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb3ddad3863144edbaea1e2d47ae3535d"/>
   </x:sheets>
 </x:workbook>
 </file>
